--- a/data files/pH monitoring_match treatment monitoring.xlsx
+++ b/data files/pH monitoring_match treatment monitoring.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="170" documentId="8_{219E3EE4-2E33-4CAF-9F8E-868D1B2F087D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DEF62E8-16B7-4039-AC8F-72AE47A215EB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="08_09" sheetId="5" r:id="rId1"/>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:DF42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S31" activeCellId="3" sqref="H31:H42 K31:K42 M31:M42 S31:S42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10191,7 +10191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C086FC47-69E9-46F4-B26C-725EDE9DE03E}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
